--- a/好玩友SDK-自测用例v1.2.0_20160401_Lu.xlsx
+++ b/好玩友SDK-自测用例v1.2.0_20160401_Lu.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\好玩友\02-好玩友SDK\SDK自测文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mistyrain/AndroidProjects/hwy_sdk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21255" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780"/>
   </bookViews>
   <sheets>
     <sheet name="好玩友SDK自测文档" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
   <si>
     <t>功能</t>
   </si>
@@ -383,7 +388,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2.问题的状态显示处理中、已结单，已结单的问题不能补充内容;
@@ -401,7 +405,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3.查看更多消息，（已安装好玩友平台）直接进入好玩友平台消息界面
@@ -419,26 +422,24 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.问题提交的时间日期显示正常，附件可以查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3.问题提交的时间日期显示正常，附件可以查看</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>（附件审核有一定延迟）</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>并且显示正常。</t>
@@ -455,7 +456,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3.输入已存在的帐号和不符合规定的密码，提示“密码不正确”
@@ -476,7 +476,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4.若没有手机卡时，系统提示获取手机号码失败，请使用其他方式登录</t>
@@ -513,7 +512,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4.游客转正时输入的帐号需使用不存在的帐号转正。</t>
@@ -539,19 +537,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取验证码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>获取验证码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>--</t>
     </r>
     <r>
@@ -559,7 +556,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>&gt;</t>
@@ -608,7 +604,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2.#iOS#强制更新，用户只能更新，对话框一直存在；</t>
@@ -645,7 +640,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -655,7 +649,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3.用户输入错误的原密码，和新设定的新密码。点击提交按钮，提示“原密码不正确”
@@ -725,19 +718,27 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.悬浮-帐户管理界面底部【切换帐号】按钮。</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>目前服务端返回的消息统一为“通行证或密码不正确”</t>
+  </si>
+  <si>
+    <t>不通过</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -892,47 +893,47 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -940,20 +941,20 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -961,14 +962,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,7 +977,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1049,6 +1050,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,33 +1083,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1459,38 +1460,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="64.875" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="64.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="33">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1510,8 +1511,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1523,11 +1524,13 @@
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1537,11 +1540,15 @@
       <c r="D5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="115.5">
-      <c r="A6" s="25"/>
+      <c r="E5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1554,8 +1561,8 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="99">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:6" ht="128" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1565,11 +1572,13 @@
       <c r="D7" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="49.5">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1579,11 +1588,13 @@
       <c r="D8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="66">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1593,11 +1604,13 @@
       <c r="D9" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1609,11 +1622,13 @@
       <c r="D10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="115.5">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:6" ht="128" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1626,8 +1641,8 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1642,8 +1657,8 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="33.75" thickBot="1">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
       <c r="B13" s="17" t="s">
         <v>123</v>
       </c>
@@ -1656,8 +1671,8 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="33.75" thickBot="1">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
@@ -1667,11 +1682,13 @@
       <c r="D14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="66">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1683,11 +1700,13 @@
       <c r="D15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="99">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
       <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
@@ -1697,11 +1716,13 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="82.5">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1713,11 +1734,13 @@
       <c r="D17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="33">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
       <c r="B18" s="11" t="s">
         <v>43</v>
       </c>
@@ -1727,11 +1750,13 @@
       <c r="D18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="49.5">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
       <c r="B19" s="11" t="s">
         <v>46</v>
       </c>
@@ -1741,11 +1766,13 @@
       <c r="D19" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="33">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -1755,11 +1782,13 @@
       <c r="D20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="148.5">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
       <c r="B21" s="11" t="s">
         <v>51</v>
       </c>
@@ -1772,8 +1801,8 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" ht="49.5">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
       <c r="B22" s="11" t="s">
         <v>53</v>
       </c>
@@ -1786,8 +1815,8 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="26"/>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
       <c r="B23" s="11" t="s">
         <v>55</v>
       </c>
@@ -1797,11 +1826,13 @@
       <c r="D23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="33">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+      <c r="A24" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1816,8 +1847,8 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="66">
-      <c r="A25" s="26"/>
+    <row r="25" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
       <c r="B25" s="11" t="s">
         <v>62</v>
       </c>
@@ -1830,8 +1861,8 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1843,11 +1874,13 @@
       <c r="D26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="49.5">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
       <c r="B27" s="11" t="s">
         <v>68</v>
       </c>
@@ -1857,11 +1890,13 @@
       <c r="D27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="49.5">
-      <c r="A28" s="25"/>
+    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
       <c r="B28" s="11" t="s">
         <v>71</v>
       </c>
@@ -1871,11 +1906,13 @@
       <c r="D28" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="49.5">
-      <c r="A29" s="26"/>
+    <row r="29" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
       <c r="B29" s="11" t="s">
         <v>73</v>
       </c>
@@ -1885,11 +1922,13 @@
       <c r="D29" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="24" t="s">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1904,8 +1943,8 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A31" s="28"/>
       <c r="B31" s="11" t="s">
         <v>79</v>
       </c>
@@ -1918,8 +1957,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
       <c r="B32" s="16" t="s">
         <v>105</v>
       </c>
@@ -1932,8 +1971,8 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" ht="33">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
       <c r="B33" s="11" t="s">
         <v>82</v>
       </c>
@@ -1946,8 +1985,8 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" ht="99.75" thickBot="1">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
       <c r="B34" s="11" t="s">
         <v>85</v>
       </c>
@@ -1960,8 +1999,8 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" ht="66.75" thickBot="1">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:6" ht="65" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
       <c r="B35" s="11" t="s">
         <v>87</v>
       </c>
@@ -1974,7 +2013,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" ht="33.75" thickBot="1">
+    <row r="36" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>119</v>
       </c>
@@ -1990,8 +2029,8 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -2006,8 +2045,8 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" ht="33.75" thickBot="1">
-      <c r="A38" s="27"/>
+    <row r="38" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
       <c r="B38" s="11" t="s">
         <v>94</v>
       </c>
@@ -2020,8 +2059,8 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" ht="49.5">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A39" s="21"/>
       <c r="B39" s="11" t="s">
         <v>97</v>
       </c>
@@ -2034,8 +2073,8 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5">
-      <c r="A40" s="28"/>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
       <c r="B40" s="11" t="s">
         <v>99</v>
       </c>
@@ -2048,75 +2087,80 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2" ht="13.5" customHeight="1">
+    <row r="49" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" ht="13.5" customHeight="1">
+    <row r="50" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:C42"/>
     <mergeCell ref="A15:A16"/>
@@ -2124,11 +2168,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E40:F40 E3:E39 F4:F39">

--- a/好玩友SDK-自测用例v1.2.0_20160401_Lu.xlsx
+++ b/好玩友SDK-自测用例v1.2.0_20160401_Lu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>好玩友SDK自测用例-v1.2.0</t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1.Android系统会提示获取短信相关权限；iOS需要用户手动发送短信；
 2.若测试设备不支持Sim卡或无法获取到Sim卡信息，均会提示失败，并返回登录页面；
 3.上行短信成功并经验证
@@ -455,9 +449,6 @@
     <t>与当前提交测试的版本号相同</t>
   </si>
   <si>
-    <t>不通过</t>
-  </si>
-  <si>
     <t>消息</t>
   </si>
   <si>
@@ -478,12 +469,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1.消息列表最多展示5条消息：最近1条招呼、最近1条系统消息、随机3条未读聊天消息；
 2.列表内容均为：【用户名】+【消息类型】&amp;【消息具体内容】
 </t>
@@ -763,12 +748,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -778,12 +763,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -825,7 +804,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -836,18 +815,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -855,9 +822,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,60 +942,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,74 +973,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="微软雅黑"/>
@@ -1051,12 +1018,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1070,162 +1193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,15 +1300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1353,15 +1311,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,17 +1330,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,8 +1342,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,170 +1383,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,85 +1561,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2093,8 +2054,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2110,627 +2071,629 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="33.75" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="33.75" customHeight="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" ht="69.75" customHeight="1" spans="1:6">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="116.25" spans="1:6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" ht="99.75" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="50.25" spans="1:6">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="66.75" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="17.25" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="116.25" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" ht="17.25" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" ht="33.75" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" ht="33.75" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="66.75" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="99.75" spans="1:6">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" ht="83.25" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="33.75" spans="1:6">
-      <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="50.25" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="33.75" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" ht="149.25" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" ht="50.25" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" ht="17.25" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" ht="33.75" spans="1:6">
+      <c r="A24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" ht="33.75" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="B24" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" ht="66.75" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" ht="66.75" spans="1:6">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" ht="17.25" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="B26" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" ht="50.25" spans="1:6">
+      <c r="A27" s="13"/>
+      <c r="B27" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="C27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" ht="50.25" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" ht="50.25" spans="1:6">
+      <c r="A28" s="13"/>
+      <c r="B28" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="C28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" ht="50.25" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" ht="50.25" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="C29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" ht="50.25" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" ht="17.25" spans="1:6">
+      <c r="A30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" ht="17.25" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" ht="17.25" spans="1:6">
+      <c r="A31" s="13"/>
+      <c r="B31" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" ht="17.25" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" ht="17.25" spans="1:6">
+      <c r="A32" s="13"/>
+      <c r="B32" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" ht="17.25" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="21" t="s">
+      <c r="C32" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" ht="33.75" spans="1:6">
+      <c r="A33" s="13"/>
+      <c r="B33" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" ht="33.75" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" ht="99.75" spans="1:6">
+      <c r="A34" s="13"/>
+      <c r="B34" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" ht="99.75" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="20" t="s">
+      <c r="C34" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" ht="66.75" spans="1:6">
+      <c r="A35" s="13"/>
+      <c r="B35" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" ht="66.75" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" ht="33.75" spans="1:6">
+      <c r="A36" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" ht="33.75" spans="1:6">
-      <c r="A36" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="C36" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" ht="17.25" spans="1:6">
+      <c r="A37" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" ht="17.25" spans="1:6">
-      <c r="A37" s="25" t="s">
+      <c r="B37" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="C37" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D37" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" ht="33.75" spans="1:6">
+      <c r="A38" s="23"/>
+      <c r="B38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" ht="33.75" spans="1:6">
-      <c r="A38" s="25"/>
-      <c r="B38" s="20" t="s">
+      <c r="C38" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" ht="50.25" spans="1:6">
+      <c r="A39" s="23"/>
+      <c r="B39" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" ht="50.25" spans="1:6">
-      <c r="A39" s="25"/>
-      <c r="B39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" ht="17.25" spans="1:6">
+      <c r="A40" s="26"/>
+      <c r="B40" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" ht="17.25" spans="1:6">
-      <c r="A40" s="28"/>
-      <c r="B40" s="20" t="s">
+      <c r="C40" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:3">
+      <c r="A41" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" spans="1:3">
-      <c r="A41" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43"/>
